--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.116303890734575</v>
+        <v>0.128235</v>
       </c>
       <c r="H2">
-        <v>0.116303890734575</v>
+        <v>0.25647</v>
       </c>
       <c r="I2">
-        <v>0.07409491210377968</v>
+        <v>0.06982308780107412</v>
       </c>
       <c r="J2">
-        <v>0.07409491210377968</v>
+        <v>0.05238384591424588</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.45452870982496</v>
+        <v>2.623902</v>
       </c>
       <c r="N2">
-        <v>2.45452870982496</v>
+        <v>5.247804</v>
       </c>
       <c r="O2">
-        <v>0.04949712324182887</v>
+        <v>0.0429772840382545</v>
       </c>
       <c r="P2">
-        <v>0.04949712324182887</v>
+        <v>0.03946320605540395</v>
       </c>
       <c r="Q2">
-        <v>0.2854712388723595</v>
+        <v>0.33647607297</v>
       </c>
       <c r="R2">
-        <v>0.2854712388723595</v>
+        <v>1.34590429188</v>
       </c>
       <c r="S2">
-        <v>0.00366748499599326</v>
+        <v>0.003000806676854745</v>
       </c>
       <c r="T2">
-        <v>0.00366748499599326</v>
+        <v>0.002067234505288415</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.116303890734575</v>
+        <v>0.128235</v>
       </c>
       <c r="H3">
-        <v>0.116303890734575</v>
+        <v>0.25647</v>
       </c>
       <c r="I3">
-        <v>0.07409491210377968</v>
+        <v>0.06982308780107412</v>
       </c>
       <c r="J3">
-        <v>0.07409491210377968</v>
+        <v>0.05238384591424588</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.925592016404041</v>
+        <v>9.602673666666666</v>
       </c>
       <c r="N3">
-        <v>8.925592016404041</v>
+        <v>28.808021</v>
       </c>
       <c r="O3">
-        <v>0.1799902059706363</v>
+        <v>0.1572836309050415</v>
       </c>
       <c r="P3">
-        <v>0.1799902059706363</v>
+        <v>0.2166347807142576</v>
       </c>
       <c r="Q3">
-        <v>1.038081078617251</v>
+        <v>1.231398857645</v>
       </c>
       <c r="R3">
-        <v>1.038081078617251</v>
+        <v>7.388393145869999</v>
       </c>
       <c r="S3">
-        <v>0.01333635849093549</v>
+        <v>0.01098202877035444</v>
       </c>
       <c r="T3">
-        <v>0.01333635849093549</v>
+        <v>0.01134816297260212</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.116303890734575</v>
+        <v>0.128235</v>
       </c>
       <c r="H4">
-        <v>0.116303890734575</v>
+        <v>0.25647</v>
       </c>
       <c r="I4">
-        <v>0.07409491210377968</v>
+        <v>0.06982308780107412</v>
       </c>
       <c r="J4">
-        <v>0.07409491210377968</v>
+        <v>0.05238384591424588</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.141453637727965</v>
+        <v>0.146072</v>
       </c>
       <c r="N4">
-        <v>0.141453637727965</v>
+        <v>0.438216</v>
       </c>
       <c r="O4">
-        <v>0.002852502034952933</v>
+        <v>0.002392535176251214</v>
       </c>
       <c r="P4">
-        <v>0.002852502034952933</v>
+        <v>0.003295360936646051</v>
       </c>
       <c r="Q4">
-        <v>0.0164516084263214</v>
+        <v>0.01873154292</v>
       </c>
       <c r="R4">
-        <v>0.0164516084263214</v>
+        <v>0.11238925752</v>
       </c>
       <c r="S4">
-        <v>0.0002113558875556903</v>
+        <v>0.0001670541936785468</v>
       </c>
       <c r="T4">
-        <v>0.0002113558875556903</v>
+        <v>0.0001726236795370917</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.116303890734575</v>
+        <v>0.128235</v>
       </c>
       <c r="H5">
-        <v>0.116303890734575</v>
+        <v>0.25647</v>
       </c>
       <c r="I5">
-        <v>0.07409491210377968</v>
+        <v>0.06982308780107412</v>
       </c>
       <c r="J5">
-        <v>0.07409491210377968</v>
+        <v>0.05238384591424588</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.975244275438181</v>
+        <v>0.116002</v>
       </c>
       <c r="N5">
-        <v>0.975244275438181</v>
+        <v>0.348006</v>
       </c>
       <c r="O5">
-        <v>0.01966641738555755</v>
+        <v>0.001900014140393048</v>
       </c>
       <c r="P5">
-        <v>0.01966641738555755</v>
+        <v>0.002616986550282157</v>
       </c>
       <c r="Q5">
-        <v>0.113424703650082</v>
+        <v>0.01487551647</v>
       </c>
       <c r="R5">
-        <v>0.113424703650082</v>
+        <v>0.08925309882</v>
       </c>
       <c r="S5">
-        <v>0.001457181467579132</v>
+        <v>0.0001326648541479461</v>
       </c>
       <c r="T5">
-        <v>0.001457181467579132</v>
+        <v>0.0001370878202096344</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.116303890734575</v>
+        <v>0.128235</v>
       </c>
       <c r="H6">
-        <v>0.116303890734575</v>
+        <v>0.25647</v>
       </c>
       <c r="I6">
-        <v>0.07409491210377968</v>
+        <v>0.06982308780107412</v>
       </c>
       <c r="J6">
-        <v>0.07409491210377968</v>
+        <v>0.05238384591424588</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.0925018920796</v>
+        <v>1.008459666666667</v>
       </c>
       <c r="N6">
-        <v>37.0925018920796</v>
+        <v>3.025379</v>
       </c>
       <c r="O6">
-        <v>0.7479937513670245</v>
+        <v>0.01651771199360982</v>
       </c>
       <c r="P6">
-        <v>0.7479937513670245</v>
+        <v>0.02275068864475348</v>
       </c>
       <c r="Q6">
-        <v>4.314002287128443</v>
+        <v>0.129319825355</v>
       </c>
       <c r="R6">
-        <v>4.314002287128443</v>
+        <v>0.77591895213</v>
       </c>
       <c r="S6">
-        <v>0.05542253126171611</v>
+        <v>0.001153317654802673</v>
       </c>
       <c r="T6">
-        <v>0.05542253126171611</v>
+        <v>0.00119176856840975</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.329216904421806</v>
+        <v>0.128235</v>
       </c>
       <c r="H7">
-        <v>0.329216904421806</v>
+        <v>0.25647</v>
       </c>
       <c r="I7">
-        <v>0.2097375886751867</v>
+        <v>0.06982308780107412</v>
       </c>
       <c r="J7">
-        <v>0.2097375886751867</v>
+        <v>0.05238384591424588</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.45452870982496</v>
+        <v>47.5561205</v>
       </c>
       <c r="N7">
-        <v>2.45452870982496</v>
+        <v>95.112241</v>
       </c>
       <c r="O7">
-        <v>0.04949712324182887</v>
+        <v>0.7789288237464499</v>
       </c>
       <c r="P7">
-        <v>0.04949712324182887</v>
+        <v>0.7152389770986567</v>
       </c>
       <c r="Q7">
-        <v>0.8080723436630227</v>
+        <v>6.0983591123175</v>
       </c>
       <c r="R7">
-        <v>0.8080723436630227</v>
+        <v>24.39343644927</v>
       </c>
       <c r="S7">
-        <v>0.01038140727509973</v>
+        <v>0.05438721565123576</v>
       </c>
       <c r="T7">
-        <v>0.01038140727509973</v>
+        <v>0.03746696836819887</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.329216904421806</v>
+        <v>0.409359</v>
       </c>
       <c r="H8">
-        <v>0.329216904421806</v>
+        <v>1.228077</v>
       </c>
       <c r="I8">
-        <v>0.2097375886751867</v>
+        <v>0.2228931991980341</v>
       </c>
       <c r="J8">
-        <v>0.2097375886751867</v>
+        <v>0.2508340013991085</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.925592016404041</v>
+        <v>2.623902</v>
       </c>
       <c r="N8">
-        <v>8.925592016404041</v>
+        <v>5.247804</v>
       </c>
       <c r="O8">
-        <v>0.1799902059706363</v>
+        <v>0.0429772840382545</v>
       </c>
       <c r="P8">
-        <v>0.1799902059706363</v>
+        <v>0.03946320605540395</v>
       </c>
       <c r="Q8">
-        <v>2.938455773772524</v>
+        <v>1.074117898818</v>
       </c>
       <c r="R8">
-        <v>2.938455773772524</v>
+        <v>6.444707392908001</v>
       </c>
       <c r="S8">
-        <v>0.03775071178543144</v>
+        <v>0.009579344332129152</v>
       </c>
       <c r="T8">
-        <v>0.03775071178543144</v>
+        <v>0.0098987138829145</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.329216904421806</v>
+        <v>0.409359</v>
       </c>
       <c r="H9">
-        <v>0.329216904421806</v>
+        <v>1.228077</v>
       </c>
       <c r="I9">
-        <v>0.2097375886751867</v>
+        <v>0.2228931991980341</v>
       </c>
       <c r="J9">
-        <v>0.2097375886751867</v>
+        <v>0.2508340013991085</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.141453637727965</v>
+        <v>9.602673666666666</v>
       </c>
       <c r="N9">
-        <v>0.141453637727965</v>
+        <v>28.808021</v>
       </c>
       <c r="O9">
-        <v>0.002852502034952933</v>
+        <v>0.1572836309050415</v>
       </c>
       <c r="P9">
-        <v>0.002852502034952933</v>
+        <v>0.2166347807142576</v>
       </c>
       <c r="Q9">
-        <v>0.04656892873200422</v>
+        <v>3.930940889513</v>
       </c>
       <c r="R9">
-        <v>0.04656892873200422</v>
+        <v>35.378468005617</v>
       </c>
       <c r="S9">
-        <v>0.0005982768985020913</v>
+        <v>0.03505745167390748</v>
       </c>
       <c r="T9">
-        <v>0.0005982768985020913</v>
+        <v>0.05433936888877565</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.329216904421806</v>
+        <v>0.409359</v>
       </c>
       <c r="H10">
-        <v>0.329216904421806</v>
+        <v>1.228077</v>
       </c>
       <c r="I10">
-        <v>0.2097375886751867</v>
+        <v>0.2228931991980341</v>
       </c>
       <c r="J10">
-        <v>0.2097375886751867</v>
+        <v>0.2508340013991085</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.975244275438181</v>
+        <v>0.146072</v>
       </c>
       <c r="N10">
-        <v>0.975244275438181</v>
+        <v>0.438216</v>
       </c>
       <c r="O10">
-        <v>0.01966641738555755</v>
+        <v>0.002392535176251214</v>
       </c>
       <c r="P10">
-        <v>0.01966641738555755</v>
+        <v>0.003295360936646051</v>
       </c>
       <c r="Q10">
-        <v>0.3210669014148451</v>
+        <v>0.05979588784800001</v>
       </c>
       <c r="R10">
-        <v>0.3210669014148451</v>
+        <v>0.538162990632</v>
       </c>
       <c r="S10">
-        <v>0.004124786960326611</v>
+        <v>0.0005332798196284654</v>
       </c>
       <c r="T10">
-        <v>0.004124786960326611</v>
+        <v>0.0008265885697932431</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.329216904421806</v>
+        <v>0.409359</v>
       </c>
       <c r="H11">
-        <v>0.329216904421806</v>
+        <v>1.228077</v>
       </c>
       <c r="I11">
-        <v>0.2097375886751867</v>
+        <v>0.2228931991980341</v>
       </c>
       <c r="J11">
-        <v>0.2097375886751867</v>
+        <v>0.2508340013991085</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>37.0925018920796</v>
+        <v>0.116002</v>
       </c>
       <c r="N11">
-        <v>37.0925018920796</v>
+        <v>0.348006</v>
       </c>
       <c r="O11">
-        <v>0.7479937513670245</v>
+        <v>0.001900014140393048</v>
       </c>
       <c r="P11">
-        <v>0.7479937513670245</v>
+        <v>0.002616986550282157</v>
       </c>
       <c r="Q11">
-        <v>12.21147865017043</v>
+        <v>0.04748646271800001</v>
       </c>
       <c r="R11">
-        <v>12.21147865017043</v>
+        <v>0.4273781644620001</v>
       </c>
       <c r="S11">
-        <v>0.1568824057558269</v>
+        <v>0.0004235002302737091</v>
       </c>
       <c r="T11">
-        <v>0.1568824057558269</v>
+        <v>0.0006564292080149227</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.200313926854945</v>
+        <v>0.409359</v>
       </c>
       <c r="H12">
-        <v>0.200313926854945</v>
+        <v>1.228077</v>
       </c>
       <c r="I12">
-        <v>0.1276160471480063</v>
+        <v>0.2228931991980341</v>
       </c>
       <c r="J12">
-        <v>0.1276160471480063</v>
+        <v>0.2508340013991085</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.45452870982496</v>
+        <v>1.008459666666667</v>
       </c>
       <c r="N12">
-        <v>2.45452870982496</v>
+        <v>3.025379</v>
       </c>
       <c r="O12">
-        <v>0.04949712324182887</v>
+        <v>0.01651771199360982</v>
       </c>
       <c r="P12">
-        <v>0.04949712324182887</v>
+        <v>0.02275068864475348</v>
       </c>
       <c r="Q12">
-        <v>0.4916762844432396</v>
+        <v>0.4128220406870001</v>
       </c>
       <c r="R12">
-        <v>0.4916762844432396</v>
+        <v>3.715398366183</v>
       </c>
       <c r="S12">
-        <v>0.006316627213319913</v>
+        <v>0.00368168566968743</v>
       </c>
       <c r="T12">
-        <v>0.006316627213319913</v>
+        <v>0.005706646267348778</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.200313926854945</v>
+        <v>0.409359</v>
       </c>
       <c r="H13">
-        <v>0.200313926854945</v>
+        <v>1.228077</v>
       </c>
       <c r="I13">
-        <v>0.1276160471480063</v>
+        <v>0.2228931991980341</v>
       </c>
       <c r="J13">
-        <v>0.1276160471480063</v>
+        <v>0.2508340013991085</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.925592016404041</v>
+        <v>47.5561205</v>
       </c>
       <c r="N13">
-        <v>8.925592016404041</v>
+        <v>95.112241</v>
       </c>
       <c r="O13">
-        <v>0.1799902059706363</v>
+        <v>0.7789288237464499</v>
       </c>
       <c r="P13">
-        <v>0.1799902059706363</v>
+        <v>0.7152389770986567</v>
       </c>
       <c r="Q13">
-        <v>1.78792038631104</v>
+        <v>19.4675259317595</v>
       </c>
       <c r="R13">
-        <v>1.78792038631104</v>
+        <v>116.805155590557</v>
       </c>
       <c r="S13">
-        <v>0.02296963861132809</v>
+        <v>0.1736179374724079</v>
       </c>
       <c r="T13">
-        <v>0.02296963861132809</v>
+        <v>0.1794062545822614</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.200313926854945</v>
+        <v>0.21845</v>
       </c>
       <c r="H14">
-        <v>0.200313926854945</v>
+        <v>0.65535</v>
       </c>
       <c r="I14">
-        <v>0.1276160471480063</v>
+        <v>0.1189445434565028</v>
       </c>
       <c r="J14">
-        <v>0.1276160471480063</v>
+        <v>0.1338548501575273</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.141453637727965</v>
+        <v>2.623902</v>
       </c>
       <c r="N14">
-        <v>0.141453637727965</v>
+        <v>5.247804</v>
       </c>
       <c r="O14">
-        <v>0.002852502034952933</v>
+        <v>0.0429772840382545</v>
       </c>
       <c r="P14">
-        <v>0.002852502034952933</v>
+        <v>0.03946320605540395</v>
       </c>
       <c r="Q14">
-        <v>0.02833513364120547</v>
+        <v>0.5731913919</v>
       </c>
       <c r="R14">
-        <v>0.02833513364120547</v>
+        <v>3.4391483514</v>
       </c>
       <c r="S14">
-        <v>0.0003640250341823375</v>
+        <v>0.005111913428930628</v>
       </c>
       <c r="T14">
-        <v>0.0003640250341823375</v>
+        <v>0.005282341533281721</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.200313926854945</v>
+        <v>0.21845</v>
       </c>
       <c r="H15">
-        <v>0.200313926854945</v>
+        <v>0.65535</v>
       </c>
       <c r="I15">
-        <v>0.1276160471480063</v>
+        <v>0.1189445434565028</v>
       </c>
       <c r="J15">
-        <v>0.1276160471480063</v>
+        <v>0.1338548501575273</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.975244275438181</v>
+        <v>9.602673666666666</v>
       </c>
       <c r="N15">
-        <v>0.975244275438181</v>
+        <v>28.808021</v>
       </c>
       <c r="O15">
-        <v>0.01966641738555755</v>
+        <v>0.1572836309050415</v>
       </c>
       <c r="P15">
-        <v>0.01966641738555755</v>
+        <v>0.2166347807142576</v>
       </c>
       <c r="Q15">
-        <v>0.1953550104558276</v>
+        <v>2.097704062483333</v>
       </c>
       <c r="R15">
-        <v>0.1953550104558276</v>
+        <v>18.87933656235</v>
       </c>
       <c r="S15">
-        <v>0.002509750448307684</v>
+        <v>0.01870802967118126</v>
       </c>
       <c r="T15">
-        <v>0.002509750448307684</v>
+        <v>0.02899761611141575</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.200313926854945</v>
+        <v>0.21845</v>
       </c>
       <c r="H16">
-        <v>0.200313926854945</v>
+        <v>0.65535</v>
       </c>
       <c r="I16">
-        <v>0.1276160471480063</v>
+        <v>0.1189445434565028</v>
       </c>
       <c r="J16">
-        <v>0.1276160471480063</v>
+        <v>0.1338548501575273</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.0925018920796</v>
+        <v>0.146072</v>
       </c>
       <c r="N16">
-        <v>37.0925018920796</v>
+        <v>0.438216</v>
       </c>
       <c r="O16">
-        <v>0.7479937513670245</v>
+        <v>0.002392535176251214</v>
       </c>
       <c r="P16">
-        <v>0.7479937513670245</v>
+        <v>0.003295360936646051</v>
       </c>
       <c r="Q16">
-        <v>7.430144710876943</v>
+        <v>0.0319094284</v>
       </c>
       <c r="R16">
-        <v>7.430144710876943</v>
+        <v>0.2871848556</v>
       </c>
       <c r="S16">
-        <v>0.09545600584086833</v>
+        <v>0.0002845790042428242</v>
       </c>
       <c r="T16">
-        <v>0.09545600584086833</v>
+        <v>0.0004411000443897261</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.35448569880569</v>
+        <v>0.21845</v>
       </c>
       <c r="H17">
-        <v>0.35448569880569</v>
+        <v>0.65535</v>
       </c>
       <c r="I17">
-        <v>0.225835838587696</v>
+        <v>0.1189445434565028</v>
       </c>
       <c r="J17">
-        <v>0.225835838587696</v>
+        <v>0.1338548501575273</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>2.45452870982496</v>
+        <v>0.116002</v>
       </c>
       <c r="N17">
-        <v>2.45452870982496</v>
+        <v>0.348006</v>
       </c>
       <c r="O17">
-        <v>0.04949712324182887</v>
+        <v>0.001900014140393048</v>
       </c>
       <c r="P17">
-        <v>0.04949712324182887</v>
+        <v>0.002616986550282157</v>
       </c>
       <c r="Q17">
-        <v>0.8700953249409296</v>
+        <v>0.0253406369</v>
       </c>
       <c r="R17">
-        <v>0.8700953249409296</v>
+        <v>0.2280657321</v>
       </c>
       <c r="S17">
-        <v>0.01117822433499696</v>
+        <v>0.0002259963144899507</v>
       </c>
       <c r="T17">
-        <v>0.01117822433499696</v>
+        <v>0.0003502963425522825</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.35448569880569</v>
+        <v>0.21845</v>
       </c>
       <c r="H18">
-        <v>0.35448569880569</v>
+        <v>0.65535</v>
       </c>
       <c r="I18">
-        <v>0.225835838587696</v>
+        <v>0.1189445434565028</v>
       </c>
       <c r="J18">
-        <v>0.225835838587696</v>
+        <v>0.1338548501575273</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.925592016404041</v>
+        <v>1.008459666666667</v>
       </c>
       <c r="N18">
-        <v>8.925592016404041</v>
+        <v>3.025379</v>
       </c>
       <c r="O18">
-        <v>0.1799902059706363</v>
+        <v>0.01651771199360982</v>
       </c>
       <c r="P18">
-        <v>0.1799902059706363</v>
+        <v>0.02275068864475348</v>
       </c>
       <c r="Q18">
-        <v>3.163994723189474</v>
+        <v>0.2202980141833334</v>
       </c>
       <c r="R18">
-        <v>3.163994723189474</v>
+        <v>1.98268212765</v>
       </c>
       <c r="S18">
-        <v>0.04064823910295077</v>
+        <v>0.001964691712025921</v>
       </c>
       <c r="T18">
-        <v>0.04064823910295077</v>
+        <v>0.003045290019524037</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.35448569880569</v>
+        <v>0.21845</v>
       </c>
       <c r="H19">
-        <v>0.35448569880569</v>
+        <v>0.65535</v>
       </c>
       <c r="I19">
-        <v>0.225835838587696</v>
+        <v>0.1189445434565028</v>
       </c>
       <c r="J19">
-        <v>0.225835838587696</v>
+        <v>0.1338548501575273</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.141453637727965</v>
+        <v>47.5561205</v>
       </c>
       <c r="N19">
-        <v>0.141453637727965</v>
+        <v>95.112241</v>
       </c>
       <c r="O19">
-        <v>0.002852502034952933</v>
+        <v>0.7789288237464499</v>
       </c>
       <c r="P19">
-        <v>0.002852502034952933</v>
+        <v>0.7152389770986567</v>
       </c>
       <c r="Q19">
-        <v>0.05014329161860458</v>
+        <v>10.388634523225</v>
       </c>
       <c r="R19">
-        <v>0.05014329161860458</v>
+        <v>62.33180713935</v>
       </c>
       <c r="S19">
-        <v>0.000644197189136705</v>
+        <v>0.09264933332563224</v>
       </c>
       <c r="T19">
-        <v>0.000644197189136705</v>
+        <v>0.09573820610636383</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.35448569880569</v>
+        <v>0.3921916666666667</v>
       </c>
       <c r="H20">
-        <v>0.35448569880569</v>
+        <v>1.176575</v>
       </c>
       <c r="I20">
-        <v>0.225835838587696</v>
+        <v>0.2135457026281145</v>
       </c>
       <c r="J20">
-        <v>0.225835838587696</v>
+        <v>0.240314748339197</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.975244275438181</v>
+        <v>2.623902</v>
       </c>
       <c r="N20">
-        <v>0.975244275438181</v>
+        <v>5.247804</v>
       </c>
       <c r="O20">
-        <v>0.01966641738555755</v>
+        <v>0.0429772840382545</v>
       </c>
       <c r="P20">
-        <v>0.01966641738555755</v>
+        <v>0.03946320605540395</v>
       </c>
       <c r="Q20">
-        <v>0.3457101484849524</v>
+        <v>1.02907249855</v>
       </c>
       <c r="R20">
-        <v>0.3457101484849524</v>
+        <v>6.174434991300001</v>
       </c>
       <c r="S20">
-        <v>0.004441381862283034</v>
+        <v>0.009177614316997108</v>
       </c>
       <c r="T20">
-        <v>0.004441381862283034</v>
+        <v>0.009483590431862275</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.35448569880569</v>
+        <v>0.3921916666666667</v>
       </c>
       <c r="H21">
-        <v>0.35448569880569</v>
+        <v>1.176575</v>
       </c>
       <c r="I21">
-        <v>0.225835838587696</v>
+        <v>0.2135457026281145</v>
       </c>
       <c r="J21">
-        <v>0.225835838587696</v>
+        <v>0.240314748339197</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>37.0925018920796</v>
+        <v>9.602673666666666</v>
       </c>
       <c r="N21">
-        <v>37.0925018920796</v>
+        <v>28.808021</v>
       </c>
       <c r="O21">
-        <v>0.7479937513670245</v>
+        <v>0.1572836309050415</v>
       </c>
       <c r="P21">
-        <v>0.7479937513670245</v>
+        <v>0.2166347807142576</v>
       </c>
       <c r="Q21">
-        <v>13.14876145366522</v>
+        <v>3.766088589786111</v>
       </c>
       <c r="R21">
-        <v>13.14876145366522</v>
+        <v>33.89479730807501</v>
       </c>
       <c r="S21">
-        <v>0.1689237960983286</v>
+        <v>0.0335872434735181</v>
       </c>
       <c r="T21">
-        <v>0.1689237960983286</v>
+        <v>0.05206053280886395</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.157109860424846</v>
+        <v>0.3921916666666667</v>
       </c>
       <c r="H22">
-        <v>0.157109860424846</v>
+        <v>1.176575</v>
       </c>
       <c r="I22">
-        <v>0.1000915895873412</v>
+        <v>0.2135457026281145</v>
       </c>
       <c r="J22">
-        <v>0.1000915895873412</v>
+        <v>0.240314748339197</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.45452870982496</v>
+        <v>0.146072</v>
       </c>
       <c r="N22">
-        <v>2.45452870982496</v>
+        <v>0.438216</v>
       </c>
       <c r="O22">
-        <v>0.04949712324182887</v>
+        <v>0.002392535176251214</v>
       </c>
       <c r="P22">
-        <v>0.04949712324182887</v>
+        <v>0.003295360936646051</v>
       </c>
       <c r="Q22">
-        <v>0.3856306630093768</v>
+        <v>0.05728822113333334</v>
       </c>
       <c r="R22">
-        <v>0.3856306630093768</v>
+        <v>0.5155939902000001</v>
       </c>
       <c r="S22">
-        <v>0.004954245745275183</v>
+        <v>0.0005109156052750452</v>
       </c>
       <c r="T22">
-        <v>0.004954245745275183</v>
+        <v>0.0007919238341769164</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.157109860424846</v>
+        <v>0.3921916666666667</v>
       </c>
       <c r="H23">
-        <v>0.157109860424846</v>
+        <v>1.176575</v>
       </c>
       <c r="I23">
-        <v>0.1000915895873412</v>
+        <v>0.2135457026281145</v>
       </c>
       <c r="J23">
-        <v>0.1000915895873412</v>
+        <v>0.240314748339197</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>8.925592016404041</v>
+        <v>0.116002</v>
       </c>
       <c r="N23">
-        <v>8.925592016404041</v>
+        <v>0.348006</v>
       </c>
       <c r="O23">
-        <v>0.1799902059706363</v>
+        <v>0.001900014140393048</v>
       </c>
       <c r="P23">
-        <v>0.1799902059706363</v>
+        <v>0.002616986550282157</v>
       </c>
       <c r="Q23">
-        <v>1.402298515906359</v>
+        <v>0.04549501771666668</v>
       </c>
       <c r="R23">
-        <v>1.402298515906359</v>
+        <v>0.4094551594500001</v>
       </c>
       <c r="S23">
-        <v>0.01801550582575394</v>
+        <v>0.0004057398546135863</v>
       </c>
       <c r="T23">
-        <v>0.01801550582575394</v>
+        <v>0.00062890046423812</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.157109860424846</v>
+        <v>0.3921916666666667</v>
       </c>
       <c r="H24">
-        <v>0.157109860424846</v>
+        <v>1.176575</v>
       </c>
       <c r="I24">
-        <v>0.1000915895873412</v>
+        <v>0.2135457026281145</v>
       </c>
       <c r="J24">
-        <v>0.1000915895873412</v>
+        <v>0.240314748339197</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.141453637727965</v>
+        <v>1.008459666666667</v>
       </c>
       <c r="N24">
-        <v>0.141453637727965</v>
+        <v>3.025379</v>
       </c>
       <c r="O24">
-        <v>0.002852502034952933</v>
+        <v>0.01651771199360982</v>
       </c>
       <c r="P24">
-        <v>0.002852502034952933</v>
+        <v>0.02275068864475348</v>
       </c>
       <c r="Q24">
-        <v>0.02222376128002731</v>
+        <v>0.3955094774361112</v>
       </c>
       <c r="R24">
-        <v>0.02222376128002731</v>
+        <v>3.559585296925</v>
       </c>
       <c r="S24">
-        <v>0.0002855114629795646</v>
+        <v>0.003527286413484242</v>
       </c>
       <c r="T24">
-        <v>0.0002855114629795646</v>
+        <v>0.005467326016207361</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.157109860424846</v>
+        <v>0.3921916666666667</v>
       </c>
       <c r="H25">
-        <v>0.157109860424846</v>
+        <v>1.176575</v>
       </c>
       <c r="I25">
-        <v>0.1000915895873412</v>
+        <v>0.2135457026281145</v>
       </c>
       <c r="J25">
-        <v>0.1000915895873412</v>
+        <v>0.240314748339197</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.975244275438181</v>
+        <v>47.5561205</v>
       </c>
       <c r="N25">
-        <v>0.975244275438181</v>
+        <v>95.112241</v>
       </c>
       <c r="O25">
-        <v>0.01966641738555755</v>
+        <v>0.7789288237464499</v>
       </c>
       <c r="P25">
-        <v>0.01966641738555755</v>
+        <v>0.7152389770986567</v>
       </c>
       <c r="Q25">
-        <v>0.1532204919942227</v>
+        <v>18.65111415909584</v>
       </c>
       <c r="R25">
-        <v>0.1532204919942227</v>
+        <v>111.906684954575</v>
       </c>
       <c r="S25">
-        <v>0.001968442977608579</v>
+        <v>0.1663369029642264</v>
       </c>
       <c r="T25">
-        <v>0.001968442977608579</v>
+        <v>0.1718824747838484</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.157109860424846</v>
+        <v>0.202834</v>
       </c>
       <c r="H26">
-        <v>0.157109860424846</v>
+        <v>0.608502</v>
       </c>
       <c r="I26">
-        <v>0.1000915895873412</v>
+        <v>0.1104417373653298</v>
       </c>
       <c r="J26">
-        <v>0.1000915895873412</v>
+        <v>0.1242861738468844</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>37.0925018920796</v>
+        <v>2.623902</v>
       </c>
       <c r="N26">
-        <v>37.0925018920796</v>
+        <v>5.247804</v>
       </c>
       <c r="O26">
-        <v>0.7479937513670245</v>
+        <v>0.0429772840382545</v>
       </c>
       <c r="P26">
-        <v>0.7479937513670245</v>
+        <v>0.03946320605540395</v>
       </c>
       <c r="Q26">
-        <v>5.827597795072963</v>
+        <v>0.532216538268</v>
       </c>
       <c r="R26">
-        <v>5.827597795072963</v>
+        <v>3.193299229608</v>
       </c>
       <c r="S26">
-        <v>0.07486788357572396</v>
+        <v>0.004746485916428084</v>
       </c>
       <c r="T26">
-        <v>0.07486788357572396</v>
+        <v>0.004904730888357357</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.412230677012277</v>
+        <v>0.202834</v>
       </c>
       <c r="H27">
-        <v>0.412230677012277</v>
+        <v>0.608502</v>
       </c>
       <c r="I27">
-        <v>0.2626240238979901</v>
+        <v>0.1104417373653298</v>
       </c>
       <c r="J27">
-        <v>0.2626240238979901</v>
+        <v>0.1242861738468844</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.45452870982496</v>
+        <v>9.602673666666666</v>
       </c>
       <c r="N27">
-        <v>2.45452870982496</v>
+        <v>28.808021</v>
       </c>
       <c r="O27">
-        <v>0.04949712324182887</v>
+        <v>0.1572836309050415</v>
       </c>
       <c r="P27">
-        <v>0.04949712324182887</v>
+        <v>0.2166347807142576</v>
       </c>
       <c r="Q27">
-        <v>1.011832031797214</v>
+        <v>1.947748710504666</v>
       </c>
       <c r="R27">
-        <v>1.011832031797214</v>
+        <v>17.529738394542</v>
       </c>
       <c r="S27">
-        <v>0.01299913367714382</v>
+        <v>0.01737067745628006</v>
       </c>
       <c r="T27">
-        <v>0.01299913367714382</v>
+        <v>0.0269247080171339</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.412230677012277</v>
+        <v>0.202834</v>
       </c>
       <c r="H28">
-        <v>0.412230677012277</v>
+        <v>0.608502</v>
       </c>
       <c r="I28">
-        <v>0.2626240238979901</v>
+        <v>0.1104417373653298</v>
       </c>
       <c r="J28">
-        <v>0.2626240238979901</v>
+        <v>0.1242861738468844</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.925592016404041</v>
+        <v>0.146072</v>
       </c>
       <c r="N28">
-        <v>8.925592016404041</v>
+        <v>0.438216</v>
       </c>
       <c r="O28">
-        <v>0.1799902059706363</v>
+        <v>0.002392535176251214</v>
       </c>
       <c r="P28">
-        <v>0.1799902059706363</v>
+        <v>0.003295360936646051</v>
       </c>
       <c r="Q28">
-        <v>3.679402839657612</v>
+        <v>0.029628368048</v>
       </c>
       <c r="R28">
-        <v>3.679402839657612</v>
+        <v>0.266655312432</v>
       </c>
       <c r="S28">
-        <v>0.04726975215423652</v>
+        <v>0.0002642357415728496</v>
       </c>
       <c r="T28">
-        <v>0.04726975215423652</v>
+        <v>0.000409567802260223</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,60 +2208,60 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.412230677012277</v>
+        <v>0.202834</v>
       </c>
       <c r="H29">
-        <v>0.412230677012277</v>
+        <v>0.608502</v>
       </c>
       <c r="I29">
-        <v>0.2626240238979901</v>
+        <v>0.1104417373653298</v>
       </c>
       <c r="J29">
-        <v>0.2626240238979901</v>
+        <v>0.1242861738468844</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.141453637727965</v>
+        <v>0.116002</v>
       </c>
       <c r="N29">
-        <v>0.141453637727965</v>
+        <v>0.348006</v>
       </c>
       <c r="O29">
-        <v>0.002852502034952933</v>
+        <v>0.001900014140393048</v>
       </c>
       <c r="P29">
-        <v>0.002852502034952933</v>
+        <v>0.002616986550282157</v>
       </c>
       <c r="Q29">
-        <v>0.05831152884644838</v>
+        <v>0.023529149668</v>
       </c>
       <c r="R29">
-        <v>0.05831152884644838</v>
+        <v>0.211762347012</v>
       </c>
       <c r="S29">
-        <v>0.0007491355625965444</v>
+        <v>0.0002098408626837019</v>
       </c>
       <c r="T29">
-        <v>0.0007491355625965444</v>
+        <v>0.0003252552453433265</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.412230677012277</v>
+        <v>0.202834</v>
       </c>
       <c r="H30">
-        <v>0.412230677012277</v>
+        <v>0.608502</v>
       </c>
       <c r="I30">
-        <v>0.2626240238979901</v>
+        <v>0.1104417373653298</v>
       </c>
       <c r="J30">
-        <v>0.2626240238979901</v>
+        <v>0.1242861738468844</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.975244275438181</v>
+        <v>1.008459666666667</v>
       </c>
       <c r="N30">
-        <v>0.975244275438181</v>
+        <v>3.025379</v>
       </c>
       <c r="O30">
-        <v>0.01966641738555755</v>
+        <v>0.01651771199360982</v>
       </c>
       <c r="P30">
-        <v>0.01966641738555755</v>
+        <v>0.02275068864475348</v>
       </c>
       <c r="Q30">
-        <v>0.4020256079162289</v>
+        <v>0.2045499080286667</v>
       </c>
       <c r="R30">
-        <v>0.4020256079162289</v>
+        <v>1.840949172258</v>
       </c>
       <c r="S30">
-        <v>0.005164873669452514</v>
+        <v>0.001824244809874414</v>
       </c>
       <c r="T30">
-        <v>0.005164873669452514</v>
+        <v>0.002827596044038171</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.412230677012277</v>
+        <v>0.202834</v>
       </c>
       <c r="H31">
-        <v>0.412230677012277</v>
+        <v>0.608502</v>
       </c>
       <c r="I31">
-        <v>0.2626240238979901</v>
+        <v>0.1104417373653298</v>
       </c>
       <c r="J31">
-        <v>0.2626240238979901</v>
+        <v>0.1242861738468844</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>37.0925018920796</v>
+        <v>47.5561205</v>
       </c>
       <c r="N31">
-        <v>37.0925018920796</v>
+        <v>95.112241</v>
       </c>
       <c r="O31">
-        <v>0.7479937513670245</v>
+        <v>0.7789288237464499</v>
       </c>
       <c r="P31">
-        <v>0.7479937513670245</v>
+        <v>0.7152389770986567</v>
       </c>
       <c r="Q31">
-        <v>15.29066716705114</v>
+        <v>9.645998145497</v>
       </c>
       <c r="R31">
-        <v>15.29066716705114</v>
+        <v>57.875988872982</v>
       </c>
       <c r="S31">
-        <v>0.1964411288345607</v>
+        <v>0.08602625257849068</v>
       </c>
       <c r="T31">
-        <v>0.1964411288345607</v>
+        <v>0.08889431584975144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.4855005</v>
+      </c>
+      <c r="H32">
+        <v>0.971001</v>
+      </c>
+      <c r="I32">
+        <v>0.2643517295509447</v>
+      </c>
+      <c r="J32">
+        <v>0.1983263803430369</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.623902</v>
+      </c>
+      <c r="N32">
+        <v>5.247804</v>
+      </c>
+      <c r="O32">
+        <v>0.0429772840382545</v>
+      </c>
+      <c r="P32">
+        <v>0.03946320605540395</v>
+      </c>
+      <c r="Q32">
+        <v>1.273905732951</v>
+      </c>
+      <c r="R32">
+        <v>5.095622931804001</v>
+      </c>
+      <c r="S32">
+        <v>0.01136111936691478</v>
+      </c>
+      <c r="T32">
+        <v>0.007826594813699678</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.4855005</v>
+      </c>
+      <c r="H33">
+        <v>0.971001</v>
+      </c>
+      <c r="I33">
+        <v>0.2643517295509447</v>
+      </c>
+      <c r="J33">
+        <v>0.1983263803430369</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>9.602673666666666</v>
+      </c>
+      <c r="N33">
+        <v>28.808021</v>
+      </c>
+      <c r="O33">
+        <v>0.1572836309050415</v>
+      </c>
+      <c r="P33">
+        <v>0.2166347807142576</v>
+      </c>
+      <c r="Q33">
+        <v>4.6621028665035</v>
+      </c>
+      <c r="R33">
+        <v>27.972617199021</v>
+      </c>
+      <c r="S33">
+        <v>0.04157819985980012</v>
+      </c>
+      <c r="T33">
+        <v>0.04296439191546624</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.4855005</v>
+      </c>
+      <c r="H34">
+        <v>0.971001</v>
+      </c>
+      <c r="I34">
+        <v>0.2643517295509447</v>
+      </c>
+      <c r="J34">
+        <v>0.1983263803430369</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.146072</v>
+      </c>
+      <c r="N34">
+        <v>0.438216</v>
+      </c>
+      <c r="O34">
+        <v>0.002392535176251214</v>
+      </c>
+      <c r="P34">
+        <v>0.003295360936646051</v>
+      </c>
+      <c r="Q34">
+        <v>0.070918029036</v>
+      </c>
+      <c r="R34">
+        <v>0.425508174216</v>
+      </c>
+      <c r="S34">
+        <v>0.0006324708118534825</v>
+      </c>
+      <c r="T34">
+        <v>0.000653557006488851</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.4855005</v>
+      </c>
+      <c r="H35">
+        <v>0.971001</v>
+      </c>
+      <c r="I35">
+        <v>0.2643517295509447</v>
+      </c>
+      <c r="J35">
+        <v>0.1983263803430369</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.116002</v>
+      </c>
+      <c r="N35">
+        <v>0.348006</v>
+      </c>
+      <c r="O35">
+        <v>0.001900014140393048</v>
+      </c>
+      <c r="P35">
+        <v>0.002616986550282157</v>
+      </c>
+      <c r="Q35">
+        <v>0.05631902900100001</v>
+      </c>
+      <c r="R35">
+        <v>0.337914174006</v>
+      </c>
+      <c r="S35">
+        <v>0.0005022720241841535</v>
+      </c>
+      <c r="T35">
+        <v>0.0005190174699238711</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.4855005</v>
+      </c>
+      <c r="H36">
+        <v>0.971001</v>
+      </c>
+      <c r="I36">
+        <v>0.2643517295509447</v>
+      </c>
+      <c r="J36">
+        <v>0.1983263803430369</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.008459666666667</v>
+      </c>
+      <c r="N36">
+        <v>3.025379</v>
+      </c>
+      <c r="O36">
+        <v>0.01651771199360982</v>
+      </c>
+      <c r="P36">
+        <v>0.02275068864475348</v>
+      </c>
+      <c r="Q36">
+        <v>0.4896076723965</v>
+      </c>
+      <c r="R36">
+        <v>2.937646034379</v>
+      </c>
+      <c r="S36">
+        <v>0.004366485733735138</v>
+      </c>
+      <c r="T36">
+        <v>0.00451206172922539</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.4855005</v>
+      </c>
+      <c r="H37">
+        <v>0.971001</v>
+      </c>
+      <c r="I37">
+        <v>0.2643517295509447</v>
+      </c>
+      <c r="J37">
+        <v>0.1983263803430369</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>47.5561205</v>
+      </c>
+      <c r="N37">
+        <v>95.112241</v>
+      </c>
+      <c r="O37">
+        <v>0.7789288237464499</v>
+      </c>
+      <c r="P37">
+        <v>0.7152389770986567</v>
+      </c>
+      <c r="Q37">
+        <v>23.08852028081025</v>
+      </c>
+      <c r="R37">
+        <v>92.354081123241</v>
+      </c>
+      <c r="S37">
+        <v>0.205911181754457</v>
+      </c>
+      <c r="T37">
+        <v>0.1418507574082328</v>
       </c>
     </row>
   </sheetData>
